--- a/Flux horaire/consolidate/Flux horaire.xlsx
+++ b/Flux horaire/consolidate/Flux horaire.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="33">
   <si>
     <t>Heure</t>
   </si>
@@ -58,28 +58,31 @@
     <t>6h-7h</t>
   </si>
   <si>
+    <t>17h-18h</t>
+  </si>
+  <si>
+    <t>18h-19h</t>
+  </si>
+  <si>
+    <t>19h-20h</t>
+  </si>
+  <si>
+    <t>20h-21h</t>
+  </si>
+  <si>
+    <t>21h-22h</t>
+  </si>
+  <si>
+    <t>22h-23h</t>
+  </si>
+  <si>
+    <t>23h-24h</t>
+  </si>
+  <si>
     <t>7h-8h</t>
   </si>
   <si>
-    <t>17h-18h</t>
-  </si>
-  <si>
-    <t>18h-19h</t>
-  </si>
-  <si>
-    <t>19h-20h</t>
-  </si>
-  <si>
-    <t>20h-21h</t>
-  </si>
-  <si>
-    <t>21h-22h</t>
-  </si>
-  <si>
-    <t>22h-23h</t>
-  </si>
-  <si>
-    <t>23h-24h</t>
+    <t>8h-9h</t>
   </si>
   <si>
     <t>12h-13h</t>
@@ -88,13 +91,28 @@
     <t>13h-14h</t>
   </si>
   <si>
+    <t>15h-16h</t>
+  </si>
+  <si>
+    <t>16h-17h</t>
+  </si>
+  <si>
+    <t>Avril</t>
+  </si>
+  <si>
     <t>Août</t>
   </si>
   <si>
+    <t>Décembre</t>
+  </si>
+  <si>
+    <t>Janvier</t>
+  </si>
+  <si>
     <t>Octobre</t>
   </si>
   <si>
-    <t>Septtembre</t>
+    <t>Septembre</t>
   </si>
 </sst>
 </file>
@@ -452,7 +470,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:G94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -486,22 +504,22 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>8664000</v>
+        <v>10857050</v>
       </c>
       <c r="C2">
-        <v>232</v>
+        <v>429</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E2">
-        <v>37344.8275862069</v>
+        <v>253078088578089</v>
       </c>
       <c r="F2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G2">
-        <v>2023</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -509,22 +527,22 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>6090250</v>
+        <v>7589250</v>
       </c>
       <c r="C3">
-        <v>230</v>
+        <v>316</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>26479.347826087</v>
+        <v>240166139240506</v>
       </c>
       <c r="F3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G3">
-        <v>2023</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -532,22 +550,22 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>4198500</v>
+        <v>3659000</v>
       </c>
       <c r="C4">
-        <v>204</v>
+        <v>242</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E4">
-        <v>20580.8823529412</v>
+        <v>151198347107438</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G4">
-        <v>2023</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -555,22 +573,22 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>2774000</v>
+        <v>2323250</v>
       </c>
       <c r="C5">
-        <v>145</v>
+        <v>197</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E5">
-        <v>19131.0344827586</v>
+        <v>117931472081218</v>
       </c>
       <c r="F5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G5">
-        <v>2023</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -578,22 +596,22 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>1193250</v>
+        <v>816750</v>
       </c>
       <c r="C6">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E6">
-        <v>10286.6379310345</v>
+        <v>563275862068965</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G6">
-        <v>2023</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -601,22 +619,22 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>151250</v>
+        <v>507500</v>
       </c>
       <c r="C7">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7">
-        <v>3601.19047619048</v>
+        <v>563888888888889</v>
       </c>
       <c r="F7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G7">
-        <v>2023</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -624,7 +642,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>77250</v>
+        <v>8500</v>
       </c>
       <c r="C8">
         <v>16</v>
@@ -633,13 +651,13 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>4828.125</v>
+        <v>531.25</v>
       </c>
       <c r="F8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G8">
-        <v>2023</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -647,22 +665,22 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G9">
-        <v>2023</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -670,22 +688,22 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>11500</v>
+        <v>44500</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D10">
         <v>2</v>
       </c>
       <c r="E10">
-        <v>3833.33333333333</v>
+        <v>494444444444444</v>
       </c>
       <c r="F10" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G10">
-        <v>2023</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -693,22 +711,22 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>390000</v>
+        <v>1200500</v>
       </c>
       <c r="C11">
-        <v>26</v>
+        <v>103</v>
       </c>
       <c r="D11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E11">
-        <v>15000</v>
+        <v>116553398058252</v>
       </c>
       <c r="F11" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G11">
-        <v>2023</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -716,22 +734,22 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>945250</v>
+        <v>2123400</v>
       </c>
       <c r="C12">
-        <v>73</v>
+        <v>161</v>
       </c>
       <c r="D12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E12">
-        <v>12948.6301369863</v>
+        <v>131888198757764</v>
       </c>
       <c r="F12" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G12">
-        <v>2023</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -739,22 +757,22 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>1625000</v>
+        <v>4344550</v>
       </c>
       <c r="C13">
-        <v>107</v>
+        <v>245</v>
       </c>
       <c r="D13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E13">
-        <v>15186.9158878505</v>
+        <v>177328571428571</v>
       </c>
       <c r="F13" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G13">
-        <v>2023</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -762,22 +780,22 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>3283250</v>
+        <v>7550800</v>
       </c>
       <c r="C14">
-        <v>159</v>
+        <v>357</v>
       </c>
       <c r="D14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E14">
-        <v>20649.3710691824</v>
+        <v>21150700280112</v>
       </c>
       <c r="F14" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G14">
-        <v>2023</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -785,42 +803,42 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>3379500</v>
+        <v>11001700</v>
       </c>
       <c r="C15">
-        <v>187</v>
+        <v>424</v>
       </c>
       <c r="D15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E15">
-        <v>18072.192513369</v>
+        <v>259474056603774</v>
       </c>
       <c r="F15" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G15">
-        <v>2023</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B16">
-        <v>8203100</v>
+        <v>8664000</v>
       </c>
       <c r="C16">
-        <v>257</v>
+        <v>232</v>
       </c>
       <c r="D16">
         <v>3</v>
       </c>
       <c r="E16">
-        <v>31918.6770428016</v>
+        <v>37344.8275862069</v>
       </c>
       <c r="F16" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G16">
         <v>2023</v>
@@ -828,22 +846,22 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B17">
-        <v>8594750</v>
+        <v>6090250</v>
       </c>
       <c r="C17">
-        <v>254</v>
+        <v>230</v>
       </c>
       <c r="D17">
         <v>3</v>
       </c>
       <c r="E17">
-        <v>33837.5984251968</v>
+        <v>26479.347826087</v>
       </c>
       <c r="F17" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G17">
         <v>2023</v>
@@ -851,22 +869,22 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B18">
-        <v>5177250</v>
+        <v>4198500</v>
       </c>
       <c r="C18">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="D18">
         <v>3</v>
       </c>
       <c r="E18">
-        <v>24306.338028169</v>
+        <v>20580.8823529412</v>
       </c>
       <c r="F18" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G18">
         <v>2023</v>
@@ -874,22 +892,22 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B19">
-        <v>3638750</v>
+        <v>2774000</v>
       </c>
       <c r="C19">
-        <v>220</v>
+        <v>145</v>
       </c>
       <c r="D19">
         <v>3</v>
       </c>
       <c r="E19">
-        <v>16539.7727272727</v>
+        <v>19131.0344827586</v>
       </c>
       <c r="F19" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G19">
         <v>2023</v>
@@ -897,22 +915,22 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B20">
-        <v>1668500</v>
+        <v>1193250</v>
       </c>
       <c r="C20">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="D20">
         <v>3</v>
       </c>
       <c r="E20">
-        <v>12545.1127819549</v>
+        <v>10286.6379310345</v>
       </c>
       <c r="F20" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G20">
         <v>2023</v>
@@ -920,22 +938,22 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B21">
-        <v>619000</v>
+        <v>151250</v>
       </c>
       <c r="C21">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="D21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E21">
-        <v>8144.73684210526</v>
+        <v>3601.19047619048</v>
       </c>
       <c r="F21" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G21">
         <v>2023</v>
@@ -943,22 +961,22 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B22">
-        <v>94500</v>
+        <v>77250</v>
       </c>
       <c r="C22">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="D22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E22">
-        <v>1312.5</v>
+        <v>4828.125</v>
       </c>
       <c r="F22" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G22">
         <v>2023</v>
@@ -966,22 +984,22 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>90000</v>
+        <v>10000</v>
       </c>
       <c r="C23">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E23">
-        <v>4500</v>
+        <v>2000</v>
       </c>
       <c r="F23" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G23">
         <v>2023</v>
@@ -989,22 +1007,22 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>11500</v>
       </c>
       <c r="C24">
         <v>3</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>3833.33333333333</v>
       </c>
       <c r="F24" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G24">
         <v>2023</v>
@@ -1012,22 +1030,22 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>390000</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="F25" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G25">
         <v>2023</v>
@@ -1035,22 +1053,22 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B26">
-        <v>31500</v>
+        <v>945250</v>
       </c>
       <c r="C26">
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E26">
-        <v>7875</v>
+        <v>12948.6301369863</v>
       </c>
       <c r="F26" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G26">
         <v>2023</v>
@@ -1058,22 +1076,22 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B27">
-        <v>322750</v>
+        <v>1625000</v>
       </c>
       <c r="C27">
-        <v>23</v>
+        <v>107</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E27">
-        <v>14032.6086956522</v>
+        <v>15186.9158878505</v>
       </c>
       <c r="F27" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G27">
         <v>2023</v>
@@ -1081,22 +1099,22 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B28">
-        <v>996750</v>
+        <v>3283250</v>
       </c>
       <c r="C28">
-        <v>72</v>
+        <v>159</v>
       </c>
       <c r="D28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E28">
-        <v>13843.75</v>
+        <v>20649.3710691824</v>
       </c>
       <c r="F28" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G28">
         <v>2023</v>
@@ -1104,22 +1122,22 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B29">
-        <v>1914500</v>
+        <v>3379500</v>
       </c>
       <c r="C29">
-        <v>140</v>
+        <v>187</v>
       </c>
       <c r="D29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E29">
-        <v>13675</v>
+        <v>18072.192513369</v>
       </c>
       <c r="F29" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G29">
         <v>2023</v>
@@ -1127,22 +1145,22 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B30">
-        <v>3163750</v>
+        <v>8203100</v>
       </c>
       <c r="C30">
-        <v>175</v>
+        <v>257</v>
       </c>
       <c r="D30">
         <v>3</v>
       </c>
       <c r="E30">
-        <v>18078.5714285714</v>
+        <v>31918.6770428016</v>
       </c>
       <c r="F30" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G30">
         <v>2023</v>
@@ -1150,22 +1168,22 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B31">
-        <v>4406500</v>
+        <v>8314250</v>
       </c>
       <c r="C31">
-        <v>202</v>
+        <v>266</v>
       </c>
       <c r="D31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E31">
-        <v>21814.3564356436</v>
+        <v>31256.5789473684</v>
       </c>
       <c r="F31" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G31">
         <v>2023</v>
@@ -1173,22 +1191,22 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B32">
-        <v>7279500</v>
+        <v>5964500</v>
       </c>
       <c r="C32">
-        <v>272</v>
+        <v>236</v>
       </c>
       <c r="D32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E32">
-        <v>26762.8676470588</v>
+        <v>25273.3050847458</v>
       </c>
       <c r="F32" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G32">
         <v>2023</v>
@@ -1196,22 +1214,22 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B33">
-        <v>11092350</v>
+        <v>3244750</v>
       </c>
       <c r="C33">
-        <v>267</v>
+        <v>200</v>
       </c>
       <c r="D33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E33">
-        <v>41544.3820224719</v>
+        <v>16223.75</v>
       </c>
       <c r="F33" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G33">
         <v>2023</v>
@@ -1219,22 +1237,22 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B34">
-        <v>7558500</v>
+        <v>2070500</v>
       </c>
       <c r="C34">
-        <v>236</v>
+        <v>152</v>
       </c>
       <c r="D34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E34">
-        <v>32027.5423728814</v>
+        <v>13621.7105263158</v>
       </c>
       <c r="F34" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G34">
         <v>2023</v>
@@ -1242,22 +1260,22 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B35">
-        <v>3683000</v>
+        <v>443000</v>
       </c>
       <c r="C35">
-        <v>221</v>
+        <v>88</v>
       </c>
       <c r="D35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E35">
-        <v>16665.1583710407</v>
+        <v>5034.09090909091</v>
       </c>
       <c r="F35" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G35">
         <v>2023</v>
@@ -1265,22 +1283,22 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B36">
-        <v>1853750</v>
+        <v>11000</v>
       </c>
       <c r="C36">
-        <v>165</v>
+        <v>43</v>
       </c>
       <c r="D36">
         <v>2</v>
       </c>
       <c r="E36">
-        <v>11234.8484848485</v>
+        <v>255.813953488372</v>
       </c>
       <c r="F36" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G36">
         <v>2023</v>
@@ -1288,22 +1306,22 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B37">
-        <v>379250</v>
+        <v>40000</v>
       </c>
       <c r="C37">
-        <v>84</v>
+        <v>23</v>
       </c>
       <c r="D37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E37">
-        <v>4514.88095238095</v>
+        <v>1739.13043478261</v>
       </c>
       <c r="F37" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G37">
         <v>2023</v>
@@ -1311,22 +1329,22 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B38">
-        <v>117500</v>
+        <v>0</v>
       </c>
       <c r="C38">
-        <v>72</v>
+        <v>3</v>
       </c>
       <c r="D38">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E38">
-        <v>1631.94444444444</v>
+        <v>0</v>
       </c>
       <c r="F38" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G38">
         <v>2023</v>
@@ -1334,22 +1352,22 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B39">
-        <v>70000</v>
+        <v>115000</v>
       </c>
       <c r="C39">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E39">
-        <v>17500</v>
+        <v>14375</v>
       </c>
       <c r="F39" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G39">
         <v>2023</v>
@@ -1357,22 +1375,22 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>563000</v>
       </c>
       <c r="C40">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="D40">
         <v>1</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>12511.1111111111</v>
       </c>
       <c r="F40" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G40">
         <v>2023</v>
@@ -1380,22 +1398,22 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B41">
-        <v>82000</v>
+        <v>1274250</v>
       </c>
       <c r="C41">
-        <v>10</v>
+        <v>102</v>
       </c>
       <c r="D41">
         <v>2</v>
       </c>
       <c r="E41">
-        <v>8200</v>
+        <v>12492.6470588235</v>
       </c>
       <c r="F41" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G41">
         <v>2023</v>
@@ -1403,22 +1421,22 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B42">
-        <v>579000</v>
+        <v>2242750</v>
       </c>
       <c r="C42">
-        <v>48</v>
+        <v>139</v>
       </c>
       <c r="D42">
         <v>2</v>
       </c>
       <c r="E42">
-        <v>12062.5</v>
+        <v>16134.8920863309</v>
       </c>
       <c r="F42" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G42">
         <v>2023</v>
@@ -1426,22 +1444,22 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B43">
-        <v>1470250</v>
+        <v>3757750</v>
       </c>
       <c r="C43">
-        <v>86</v>
+        <v>197</v>
       </c>
       <c r="D43">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E43">
-        <v>17095.9302325581</v>
+        <v>19074.8730964467</v>
       </c>
       <c r="F43" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G43">
         <v>2023</v>
@@ -1449,22 +1467,22 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B44">
-        <v>3035500</v>
+        <v>7646650</v>
       </c>
       <c r="C44">
-        <v>144</v>
+        <v>307</v>
       </c>
       <c r="D44">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E44">
-        <v>21079.8611111111</v>
+        <v>24907.654723127</v>
       </c>
       <c r="F44" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G44">
         <v>2023</v>
@@ -1472,47 +1490,1151 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B45">
-        <v>5453750</v>
+        <v>68317300</v>
       </c>
       <c r="C45">
-        <v>219</v>
+        <v>2309</v>
       </c>
       <c r="D45">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E45">
-        <v>24902.9680365297</v>
+        <v>29587.3971416197</v>
       </c>
       <c r="F45" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G45">
-        <v>2023</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46">
+        <v>48763700</v>
+      </c>
+      <c r="C46">
+        <v>2005</v>
+      </c>
+      <c r="D46">
+        <v>5</v>
+      </c>
+      <c r="E46">
+        <v>24321.0473815461</v>
+      </c>
+      <c r="F46" t="s">
+        <v>30</v>
+      </c>
+      <c r="G46">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" t="s">
+        <v>9</v>
+      </c>
+      <c r="B47">
+        <v>28342400</v>
+      </c>
+      <c r="C47">
+        <v>1722</v>
+      </c>
+      <c r="D47">
+        <v>5</v>
+      </c>
+      <c r="E47">
+        <v>16459.0011614402</v>
+      </c>
+      <c r="F47" t="s">
+        <v>30</v>
+      </c>
+      <c r="G47">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" t="s">
+        <v>10</v>
+      </c>
+      <c r="B48">
+        <v>15043750</v>
+      </c>
+      <c r="C48">
+        <v>1152</v>
+      </c>
+      <c r="D48">
+        <v>5</v>
+      </c>
+      <c r="E48">
+        <v>13058.8107638889</v>
+      </c>
+      <c r="F48" t="s">
+        <v>30</v>
+      </c>
+      <c r="G48">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" t="s">
+        <v>11</v>
+      </c>
+      <c r="B49">
+        <v>4312000</v>
+      </c>
+      <c r="C49">
+        <v>666</v>
+      </c>
+      <c r="D49">
+        <v>5</v>
+      </c>
+      <c r="E49">
+        <v>6474.47447447447</v>
+      </c>
+      <c r="F49" t="s">
+        <v>30</v>
+      </c>
+      <c r="G49">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" t="s">
+        <v>12</v>
+      </c>
+      <c r="B50">
+        <v>530750</v>
+      </c>
+      <c r="C50">
+        <v>380</v>
+      </c>
+      <c r="D50">
+        <v>5</v>
+      </c>
+      <c r="E50">
+        <v>1396.71052631579</v>
+      </c>
+      <c r="F50" t="s">
+        <v>30</v>
+      </c>
+      <c r="G50">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" t="s">
+        <v>13</v>
+      </c>
+      <c r="B51">
+        <v>312250</v>
+      </c>
+      <c r="C51">
+        <v>95</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
+      <c r="E51">
+        <v>3286.84210526316</v>
+      </c>
+      <c r="F51" t="s">
+        <v>30</v>
+      </c>
+      <c r="G51">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" t="s">
         <v>21</v>
       </c>
-      <c r="B46">
+      <c r="B52">
+        <v>10000</v>
+      </c>
+      <c r="C52">
+        <v>6</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>1666.66666666667</v>
+      </c>
+      <c r="F52" t="s">
+        <v>30</v>
+      </c>
+      <c r="G52">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" t="s">
+        <v>22</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53" t="s">
+        <v>30</v>
+      </c>
+      <c r="G53">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" t="s">
+        <v>23</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54">
+        <v>3</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54" t="s">
+        <v>30</v>
+      </c>
+      <c r="G54">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" t="s">
+        <v>24</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55" t="s">
+        <v>30</v>
+      </c>
+      <c r="G55">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" t="s">
+        <v>25</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56" t="s">
+        <v>30</v>
+      </c>
+      <c r="G56">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" t="s">
+        <v>26</v>
+      </c>
+      <c r="B57">
+        <v>4000</v>
+      </c>
+      <c r="C57">
+        <v>4</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <v>1000</v>
+      </c>
+      <c r="F57" t="s">
+        <v>30</v>
+      </c>
+      <c r="G57">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" t="s">
+        <v>14</v>
+      </c>
+      <c r="B58">
+        <v>618550</v>
+      </c>
+      <c r="C58">
+        <v>58</v>
+      </c>
+      <c r="D58">
+        <v>3</v>
+      </c>
+      <c r="E58">
+        <v>10664.6551724138</v>
+      </c>
+      <c r="F58" t="s">
+        <v>30</v>
+      </c>
+      <c r="G58">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B59">
+        <v>2558500</v>
+      </c>
+      <c r="C59">
+        <v>220</v>
+      </c>
+      <c r="D59">
+        <v>5</v>
+      </c>
+      <c r="E59">
+        <v>11629.5454545455</v>
+      </c>
+      <c r="F59" t="s">
+        <v>30</v>
+      </c>
+      <c r="G59">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" t="s">
+        <v>16</v>
+      </c>
+      <c r="B60">
+        <v>7407400</v>
+      </c>
+      <c r="C60">
+        <v>617</v>
+      </c>
+      <c r="D60">
+        <v>5</v>
+      </c>
+      <c r="E60">
+        <v>12005.510534846</v>
+      </c>
+      <c r="F60" t="s">
+        <v>30</v>
+      </c>
+      <c r="G60">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" t="s">
+        <v>17</v>
+      </c>
+      <c r="B61">
+        <v>15744550</v>
+      </c>
+      <c r="C61">
+        <v>1034</v>
+      </c>
+      <c r="D61">
+        <v>6</v>
+      </c>
+      <c r="E61">
+        <v>15226.837524178</v>
+      </c>
+      <c r="F61" t="s">
+        <v>30</v>
+      </c>
+      <c r="G61">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" t="s">
+        <v>18</v>
+      </c>
+      <c r="B62">
+        <v>28031100</v>
+      </c>
+      <c r="C62">
+        <v>1426</v>
+      </c>
+      <c r="D62">
+        <v>6</v>
+      </c>
+      <c r="E62">
+        <v>19657.1528751753</v>
+      </c>
+      <c r="F62" t="s">
+        <v>30</v>
+      </c>
+      <c r="G62">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" t="s">
+        <v>19</v>
+      </c>
+      <c r="B63">
+        <v>39333100</v>
+      </c>
+      <c r="C63">
+        <v>1883</v>
+      </c>
+      <c r="D63">
+        <v>5</v>
+      </c>
+      <c r="E63">
+        <v>20888.5289431758</v>
+      </c>
+      <c r="F63" t="s">
+        <v>30</v>
+      </c>
+      <c r="G63">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" t="s">
+        <v>20</v>
+      </c>
+      <c r="B64">
+        <v>64579750</v>
+      </c>
+      <c r="C64">
+        <v>2385</v>
+      </c>
+      <c r="D64">
+        <v>5</v>
+      </c>
+      <c r="E64">
+        <v>27077.463312369</v>
+      </c>
+      <c r="F64" t="s">
+        <v>30</v>
+      </c>
+      <c r="G64">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" t="s">
+        <v>7</v>
+      </c>
+      <c r="B65">
+        <v>8594750</v>
+      </c>
+      <c r="C65">
+        <v>254</v>
+      </c>
+      <c r="D65">
+        <v>3</v>
+      </c>
+      <c r="E65">
+        <v>33837.5984251968</v>
+      </c>
+      <c r="F65" t="s">
+        <v>31</v>
+      </c>
+      <c r="G65">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" t="s">
+        <v>8</v>
+      </c>
+      <c r="B66">
+        <v>5177250</v>
+      </c>
+      <c r="C66">
+        <v>213</v>
+      </c>
+      <c r="D66">
+        <v>3</v>
+      </c>
+      <c r="E66">
+        <v>24306.338028169</v>
+      </c>
+      <c r="F66" t="s">
+        <v>31</v>
+      </c>
+      <c r="G66">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" t="s">
+        <v>9</v>
+      </c>
+      <c r="B67">
+        <v>3638750</v>
+      </c>
+      <c r="C67">
+        <v>220</v>
+      </c>
+      <c r="D67">
+        <v>3</v>
+      </c>
+      <c r="E67">
+        <v>16539.7727272727</v>
+      </c>
+      <c r="F67" t="s">
+        <v>31</v>
+      </c>
+      <c r="G67">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" t="s">
+        <v>10</v>
+      </c>
+      <c r="B68">
+        <v>1668500</v>
+      </c>
+      <c r="C68">
+        <v>133</v>
+      </c>
+      <c r="D68">
+        <v>3</v>
+      </c>
+      <c r="E68">
+        <v>12545.1127819549</v>
+      </c>
+      <c r="F68" t="s">
+        <v>31</v>
+      </c>
+      <c r="G68">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" t="s">
+        <v>11</v>
+      </c>
+      <c r="B69">
+        <v>619000</v>
+      </c>
+      <c r="C69">
+        <v>76</v>
+      </c>
+      <c r="D69">
+        <v>3</v>
+      </c>
+      <c r="E69">
+        <v>8144.73684210526</v>
+      </c>
+      <c r="F69" t="s">
+        <v>31</v>
+      </c>
+      <c r="G69">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" t="s">
+        <v>12</v>
+      </c>
+      <c r="B70">
+        <v>94500</v>
+      </c>
+      <c r="C70">
+        <v>72</v>
+      </c>
+      <c r="D70">
+        <v>2</v>
+      </c>
+      <c r="E70">
+        <v>1312.5</v>
+      </c>
+      <c r="F70" t="s">
+        <v>31</v>
+      </c>
+      <c r="G70">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" t="s">
+        <v>13</v>
+      </c>
+      <c r="B71">
+        <v>90000</v>
+      </c>
+      <c r="C71">
+        <v>20</v>
+      </c>
+      <c r="D71">
+        <v>2</v>
+      </c>
+      <c r="E71">
+        <v>4500</v>
+      </c>
+      <c r="F71" t="s">
+        <v>31</v>
+      </c>
+      <c r="G71">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" t="s">
+        <v>23</v>
+      </c>
+      <c r="B72">
+        <v>0</v>
+      </c>
+      <c r="C72">
+        <v>3</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72" t="s">
+        <v>31</v>
+      </c>
+      <c r="G72">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" t="s">
+        <v>24</v>
+      </c>
+      <c r="B73">
+        <v>0</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73" t="s">
+        <v>31</v>
+      </c>
+      <c r="G73">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" t="s">
+        <v>14</v>
+      </c>
+      <c r="B74">
+        <v>31500</v>
+      </c>
+      <c r="C74">
+        <v>4</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+      <c r="E74">
+        <v>7875</v>
+      </c>
+      <c r="F74" t="s">
+        <v>31</v>
+      </c>
+      <c r="G74">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" t="s">
+        <v>15</v>
+      </c>
+      <c r="B75">
+        <v>322750</v>
+      </c>
+      <c r="C75">
+        <v>23</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+      <c r="E75">
+        <v>14032.6086956522</v>
+      </c>
+      <c r="F75" t="s">
+        <v>31</v>
+      </c>
+      <c r="G75">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" t="s">
+        <v>16</v>
+      </c>
+      <c r="B76">
+        <v>996750</v>
+      </c>
+      <c r="C76">
+        <v>72</v>
+      </c>
+      <c r="D76">
+        <v>2</v>
+      </c>
+      <c r="E76">
+        <v>13843.75</v>
+      </c>
+      <c r="F76" t="s">
+        <v>31</v>
+      </c>
+      <c r="G76">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" t="s">
+        <v>17</v>
+      </c>
+      <c r="B77">
+        <v>1914500</v>
+      </c>
+      <c r="C77">
+        <v>140</v>
+      </c>
+      <c r="D77">
+        <v>2</v>
+      </c>
+      <c r="E77">
+        <v>13675</v>
+      </c>
+      <c r="F77" t="s">
+        <v>31</v>
+      </c>
+      <c r="G77">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" t="s">
+        <v>18</v>
+      </c>
+      <c r="B78">
+        <v>3163750</v>
+      </c>
+      <c r="C78">
+        <v>175</v>
+      </c>
+      <c r="D78">
+        <v>3</v>
+      </c>
+      <c r="E78">
+        <v>18078.5714285714</v>
+      </c>
+      <c r="F78" t="s">
+        <v>31</v>
+      </c>
+      <c r="G78">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" t="s">
+        <v>19</v>
+      </c>
+      <c r="B79">
+        <v>4406500</v>
+      </c>
+      <c r="C79">
+        <v>202</v>
+      </c>
+      <c r="D79">
+        <v>3</v>
+      </c>
+      <c r="E79">
+        <v>21814.3564356436</v>
+      </c>
+      <c r="F79" t="s">
+        <v>31</v>
+      </c>
+      <c r="G79">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" t="s">
+        <v>20</v>
+      </c>
+      <c r="B80">
+        <v>7279500</v>
+      </c>
+      <c r="C80">
+        <v>272</v>
+      </c>
+      <c r="D80">
+        <v>3</v>
+      </c>
+      <c r="E80">
+        <v>26762.8676470588</v>
+      </c>
+      <c r="F80" t="s">
+        <v>31</v>
+      </c>
+      <c r="G80">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" t="s">
+        <v>7</v>
+      </c>
+      <c r="B81">
+        <v>11092350</v>
+      </c>
+      <c r="C81">
+        <v>267</v>
+      </c>
+      <c r="D81">
+        <v>3</v>
+      </c>
+      <c r="E81">
+        <v>41544.3820224719</v>
+      </c>
+      <c r="F81" t="s">
+        <v>32</v>
+      </c>
+      <c r="G81">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" t="s">
+        <v>8</v>
+      </c>
+      <c r="B82">
+        <v>7558500</v>
+      </c>
+      <c r="C82">
+        <v>236</v>
+      </c>
+      <c r="D82">
+        <v>3</v>
+      </c>
+      <c r="E82">
+        <v>32027.5423728814</v>
+      </c>
+      <c r="F82" t="s">
+        <v>32</v>
+      </c>
+      <c r="G82">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" t="s">
+        <v>9</v>
+      </c>
+      <c r="B83">
+        <v>3683000</v>
+      </c>
+      <c r="C83">
+        <v>221</v>
+      </c>
+      <c r="D83">
+        <v>3</v>
+      </c>
+      <c r="E83">
+        <v>16665.1583710407</v>
+      </c>
+      <c r="F83" t="s">
+        <v>32</v>
+      </c>
+      <c r="G83">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" t="s">
+        <v>10</v>
+      </c>
+      <c r="B84">
+        <v>1853750</v>
+      </c>
+      <c r="C84">
+        <v>165</v>
+      </c>
+      <c r="D84">
+        <v>2</v>
+      </c>
+      <c r="E84">
+        <v>11234.8484848485</v>
+      </c>
+      <c r="F84" t="s">
+        <v>32</v>
+      </c>
+      <c r="G84">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" t="s">
+        <v>11</v>
+      </c>
+      <c r="B85">
+        <v>379250</v>
+      </c>
+      <c r="C85">
+        <v>84</v>
+      </c>
+      <c r="D85">
+        <v>3</v>
+      </c>
+      <c r="E85">
+        <v>4514.88095238095</v>
+      </c>
+      <c r="F85" t="s">
+        <v>32</v>
+      </c>
+      <c r="G85">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" t="s">
+        <v>12</v>
+      </c>
+      <c r="B86">
+        <v>117500</v>
+      </c>
+      <c r="C86">
+        <v>72</v>
+      </c>
+      <c r="D86">
+        <v>3</v>
+      </c>
+      <c r="E86">
+        <v>1631.94444444444</v>
+      </c>
+      <c r="F86" t="s">
+        <v>32</v>
+      </c>
+      <c r="G86">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" t="s">
+        <v>13</v>
+      </c>
+      <c r="B87">
+        <v>70000</v>
+      </c>
+      <c r="C87">
+        <v>4</v>
+      </c>
+      <c r="D87">
+        <v>1</v>
+      </c>
+      <c r="E87">
+        <v>17500</v>
+      </c>
+      <c r="F87" t="s">
+        <v>32</v>
+      </c>
+      <c r="G87">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" t="s">
+        <v>14</v>
+      </c>
+      <c r="B88">
+        <v>0</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+      <c r="D88">
+        <v>1</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88" t="s">
+        <v>32</v>
+      </c>
+      <c r="G88">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" t="s">
+        <v>15</v>
+      </c>
+      <c r="B89">
+        <v>82000</v>
+      </c>
+      <c r="C89">
+        <v>10</v>
+      </c>
+      <c r="D89">
+        <v>2</v>
+      </c>
+      <c r="E89">
+        <v>8200</v>
+      </c>
+      <c r="F89" t="s">
+        <v>32</v>
+      </c>
+      <c r="G89">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" t="s">
+        <v>16</v>
+      </c>
+      <c r="B90">
+        <v>579000</v>
+      </c>
+      <c r="C90">
+        <v>48</v>
+      </c>
+      <c r="D90">
+        <v>2</v>
+      </c>
+      <c r="E90">
+        <v>12062.5</v>
+      </c>
+      <c r="F90" t="s">
+        <v>32</v>
+      </c>
+      <c r="G90">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" t="s">
+        <v>17</v>
+      </c>
+      <c r="B91">
+        <v>1470250</v>
+      </c>
+      <c r="C91">
+        <v>86</v>
+      </c>
+      <c r="D91">
+        <v>3</v>
+      </c>
+      <c r="E91">
+        <v>17095.9302325581</v>
+      </c>
+      <c r="F91" t="s">
+        <v>32</v>
+      </c>
+      <c r="G91">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" t="s">
+        <v>18</v>
+      </c>
+      <c r="B92">
+        <v>3035500</v>
+      </c>
+      <c r="C92">
+        <v>144</v>
+      </c>
+      <c r="D92">
+        <v>3</v>
+      </c>
+      <c r="E92">
+        <v>21079.8611111111</v>
+      </c>
+      <c r="F92" t="s">
+        <v>32</v>
+      </c>
+      <c r="G92">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" t="s">
+        <v>19</v>
+      </c>
+      <c r="B93">
+        <v>5453750</v>
+      </c>
+      <c r="C93">
+        <v>219</v>
+      </c>
+      <c r="D93">
+        <v>3</v>
+      </c>
+      <c r="E93">
+        <v>24902.9680365297</v>
+      </c>
+      <c r="F93" t="s">
+        <v>32</v>
+      </c>
+      <c r="G93">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" t="s">
+        <v>20</v>
+      </c>
+      <c r="B94">
         <v>7414000</v>
       </c>
-      <c r="C46">
+      <c r="C94">
         <v>237</v>
       </c>
-      <c r="D46">
-        <v>3</v>
-      </c>
-      <c r="E46">
+      <c r="D94">
+        <v>3</v>
+      </c>
+      <c r="E94">
         <v>31282.7004219409</v>
       </c>
-      <c r="F46" t="s">
-        <v>26</v>
-      </c>
-      <c r="G46">
+      <c r="F94" t="s">
+        <v>32</v>
+      </c>
+      <c r="G94">
         <v>2023</v>
       </c>
     </row>
